--- a/data/literature_dataset/soil_spaw_Saxton-Rawls.xlsx
+++ b/data/literature_dataset/soil_spaw_Saxton-Rawls.xlsx
@@ -43,12 +43,6 @@
     <t>s_w</t>
   </si>
   <si>
-    <t>s_1</t>
-  </si>
-  <si>
-    <t>s_c</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>*K. E. Saxton and W. J. Rawls,  Soil Water Characteristic Estimates by Texture and Organic Matter for Hydrologic Solutions,  Soil Science Society of America 70:1569–1578 (2006).</t>
+  </si>
+  <si>
+    <t>s_fc</t>
+  </si>
+  <si>
+    <t>s_*</t>
   </si>
 </sst>
 </file>
@@ -174,8 +174,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="Soil Texture class*" dataDxfId="4"/>
     <tableColumn id="2" name="s_w" dataDxfId="3"/>
-    <tableColumn id="3" name="s_1" dataDxfId="2"/>
-    <tableColumn id="4" name="s_c" dataDxfId="1"/>
+    <tableColumn id="3" name="s_fc" dataDxfId="2"/>
+    <tableColumn id="4" name="s_*" dataDxfId="1"/>
     <tableColumn id="5" name="n" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,24 +482,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>0.05</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>0.27</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>0.3</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="27.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
